--- a/config_hlw/item_gun_config.xlsx
+++ b/config_hlw/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -743,14 +743,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"buygift",10343,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10341,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>是否花费498元购买【神龙之力】永久使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -768,6 +760,14 @@
   </si>
   <si>
     <t>热销</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10848,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10846,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1273,9 +1273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1596,10 +1596,10 @@
         <v>148</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>66</v>
@@ -1623,7 +1623,7 @@
         <v>136</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1723,10 +1723,10 @@
         <v>61</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>66</v>
@@ -1750,7 +1750,7 @@
         <v>142</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_hlw/item_gun_config.xlsx
+++ b/config_hlw/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
     <t>id|行号</t>
   </si>
@@ -190,10 +190,6 @@
     <t>gun_bed_3</t>
   </si>
   <si>
-    <t>小钢炮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>雷霆幻影</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -262,10 +258,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_p0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>系统赠送</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -342,10 +334,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP3开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -414,9 +402,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>圣光  I</t>
-  </si>
-  <si>
     <t>圣光  II</t>
   </si>
   <si>
@@ -426,9 +411,6 @@
     <t>圣光  IV</t>
   </si>
   <si>
-    <t>圣光  V</t>
-  </si>
-  <si>
     <t>gun_barrel_8</t>
   </si>
   <si>
@@ -441,9 +423,6 @@
     <t>gun_barrel_11</t>
   </si>
   <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
     <t>3dby_icon_p6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -462,22 +441,6 @@
   </si>
   <si>
     <t>3dby_icon_djpt5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80级解锁</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +727,34 @@
   </si>
   <si>
     <t>是否花费3万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  V</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1267,11 +1258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1323,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1332,31 +1323,31 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1378,20 +1369,20 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
+      <c r="G2" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -1403,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1415,26 +1406,26 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1457,44 +1448,44 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O4" s="29">
         <v>10850</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1517,44 +1508,44 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O5" s="29">
         <v>10849</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1565,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -1577,49 +1568,49 @@
         <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17">
         <v>5</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O6" s="24">
         <v>10848</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1642,46 +1633,46 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O7" s="8">
         <v>10847</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1692,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="19">
         <v>3</v>
@@ -1704,49 +1695,49 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O8" s="24">
         <v>10846</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1769,20 +1760,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="5" t="s">
-        <v>90</v>
+      <c r="K9" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
@@ -1795,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1807,20 +1798,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="5" t="s">
-        <v>91</v>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
@@ -1833,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1845,20 +1836,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="5" t="s">
-        <v>92</v>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
@@ -1871,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1883,20 +1874,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="5" t="s">
-        <v>93</v>
+      <c r="K12" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
@@ -1906,53 +1897,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>89</v>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
+      <c r="B14" s="3">
+        <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
       <c r="F14" s="3">
@@ -1961,17 +1949,24 @@
       <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
+      <c r="H14" s="3">
+        <v>2</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1979,15 +1974,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3">
@@ -1997,23 +1992,23 @@
         <v>33</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2021,96 +2016,87 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
+      <c r="G16" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="N16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2122,28 +2108,31 @@
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2155,34 +2144,34 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -2191,31 +2180,31 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2227,34 +2216,34 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -2263,56 +2252,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/item_gun_config.xlsx
+++ b/config_hlw/item_gun_config.xlsx
@@ -1260,9 +1260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1409,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
@@ -1451,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>18</v>
@@ -1511,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>19</v>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>41</v>
@@ -1636,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>36</v>
@@ -1698,7 +1698,7 @@
         <v>78</v>
       </c>
       <c r="H8" s="17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>40</v>
@@ -1763,7 +1763,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>71</v>
@@ -1801,7 +1801,7 @@
         <v>82</v>
       </c>
       <c r="H10" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>72</v>
@@ -1839,7 +1839,7 @@
         <v>79</v>
       </c>
       <c r="H11" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>73</v>
@@ -1877,7 +1877,7 @@
         <v>83</v>
       </c>
       <c r="H12" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>151</v>

--- a/config_hlw/item_gun_config.xlsx
+++ b/config_hlw/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>id|行号</t>
   </si>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"buyitem",26,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"buyitem",27,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -374,10 +370,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>buy_hint|提示文字</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -387,10 +379,6 @@
   </si>
   <si>
     <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -768,6 +756,14 @@
   </si>
   <si>
     <t>"buygift",10846,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【死灵之光】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10847,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1286,7 @@
     <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="13" max="13" width="44.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="17.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
@@ -1312,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1327,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1336,31 +1332,31 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="U1" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1407,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1431,14 +1427,14 @@
         <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1473,32 +1469,32 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O4" s="29">
         <v>10850</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1530,35 +1526,35 @@
         <v>20</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O5" s="29">
         <v>10849</v>
       </c>
       <c r="P5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1590,40 +1586,40 @@
         <v>43</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O6" s="24">
         <v>10848</v>
       </c>
       <c r="P6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="U6" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,37 +1651,37 @@
         <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O7" s="8">
         <v>10847</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1708,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
@@ -1717,40 +1713,40 @@
         <v>42</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8" s="24">
         <v>10846</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1761,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1773,20 +1769,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
@@ -1799,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1811,20 +1807,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
@@ -1837,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1849,20 +1845,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
@@ -1875,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1887,20 +1883,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
@@ -1913,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1925,20 +1921,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4">
         <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
@@ -1972,7 +1968,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>36</v>
@@ -2013,11 +2009,11 @@
         <v>26</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2049,17 +2045,17 @@
         <v>22</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2091,19 +2087,19 @@
         <v>39</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2114,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2126,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -2147,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2159,20 +2155,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2183,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2195,20 +2191,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2219,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2231,20 +2227,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3">
         <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2255,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -2267,20 +2263,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" s="3">
         <v>4</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2291,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -2303,20 +2299,20 @@
         <v>1</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/item_gun_config.xlsx
+++ b/config_hlw/item_gun_config.xlsx
@@ -306,10 +306,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"buyitem",27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>系统赠送基础炮座</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -379,10 +375,6 @@
   </si>
   <si>
     <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【金焰】30天使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +756,14 @@
   </si>
   <si>
     <t>"buygift",10847,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",36,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费3万金币购买【金焰】30天使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1271,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1332,31 +1332,31 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="O1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="U1" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1427,14 +1427,14 @@
         <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1469,32 +1469,32 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="29">
         <v>10850</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1526,35 +1526,35 @@
         <v>20</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="29">
         <v>10849</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1586,40 +1586,40 @@
         <v>43</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="N6" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="24">
         <v>10848</v>
       </c>
       <c r="P6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="S6" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="27" t="s">
+      <c r="T6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="U6" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1651,37 +1651,37 @@
         <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="8">
         <v>10847</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
@@ -1713,40 +1713,40 @@
         <v>42</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="24">
         <v>10846</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>139</v>
-      </c>
       <c r="U8" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1769,20 +1769,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
@@ -1795,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1807,20 +1807,20 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
@@ -1833,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1845,20 +1845,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1883,20 +1883,20 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1921,20 +1921,20 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="4">
         <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
@@ -1968,7 +1968,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>36</v>
@@ -2009,11 +2009,11 @@
         <v>26</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2045,17 +2045,17 @@
         <v>22</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2087,19 +2087,19 @@
         <v>39</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2122,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2155,20 +2155,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2191,20 +2191,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2227,20 +2227,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3">
         <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -2263,20 +2263,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3">
         <v>4</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -2299,20 +2299,20 @@
         <v>1</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
